--- a/Documents/BlackBox Test Template.xlsx
+++ b/Documents/BlackBox Test Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SOFTWARE_ENGINEERING\Week 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1wilss91\Downloads\SWEG-MT-GameProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t xml:space="preserve">Test ID </t>
   </si>
@@ -135,6 +135,30 @@
   </si>
   <si>
     <t>Can you throw Items?</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>ROOM A</t>
+  </si>
+  <si>
+    <t>ROOM B</t>
+  </si>
+  <si>
+    <t>ROOM C</t>
+  </si>
+  <si>
+    <t>ROOM D</t>
+  </si>
+  <si>
+    <t>ROOM E</t>
+  </si>
+  <si>
+    <t>ROOM F</t>
+  </si>
+  <si>
+    <t>ROOM G</t>
   </si>
 </sst>
 </file>
@@ -150,15 +174,57 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -166,12 +232,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,373 +556,580 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>25</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>26</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>24</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>28</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>29</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>30</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>31</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>32</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>33</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>34</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>35</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>36</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>37</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>38</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>39</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>40</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>41</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>42</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>44</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>36</v>
-      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
